--- a/pandasEx.xlsx
+++ b/pandasEx.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luke Smith\Desktop\Coca-Cola\BOM Mgmt\bom-checker\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A5863A-BFF8-43A1-9100-D407D1EE28FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26190" yWindow="2985" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Updated BOM" sheetId="1" r:id="rId1"/>
@@ -20,12 +14,12 @@
     <sheet name="Reordered Nodes" sheetId="5" r:id="rId5"/>
     <sheet name="Key" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="93">
   <si>
     <t>Level</t>
   </si>
@@ -309,8 +303,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -403,14 +397,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -457,7 +443,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -489,27 +475,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -541,24 +509,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -734,29 +684,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7.7109375" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" customWidth="1"/>
-    <col min="3" max="3" width="60.7109375" customWidth="1"/>
-    <col min="4" max="4" width="45.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="46.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
-    <col min="11" max="16" width="16.7109375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -806,7 +741,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>0</v>
       </c>
@@ -832,7 +767,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>1</v>
       </c>
@@ -861,7 +796,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -887,7 +822,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -913,7 +848,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -939,7 +874,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>3</v>
       </c>
@@ -965,7 +900,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>3</v>
       </c>
@@ -991,7 +926,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="A9" s="3">
         <v>3</v>
       </c>
@@ -1017,7 +952,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10" s="3">
         <v>2</v>
       </c>
@@ -1043,7 +978,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -1069,7 +1004,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1095,7 +1030,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1121,7 +1056,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="A14" s="5">
         <v>2</v>
       </c>
@@ -1147,7 +1082,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="A15" s="5">
         <v>3</v>
       </c>
@@ -1173,7 +1108,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16">
       <c r="A16" s="5">
         <v>3</v>
       </c>
@@ -1199,7 +1134,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="5">
         <v>3</v>
       </c>
@@ -1225,7 +1160,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="5">
         <v>3</v>
       </c>
@@ -1251,7 +1186,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="5">
         <v>1</v>
       </c>
@@ -1277,7 +1212,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="5">
         <v>2</v>
       </c>
@@ -1309,27 +1244,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7.7109375" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" customWidth="1"/>
-    <col min="3" max="3" width="60.7109375" customWidth="1"/>
-    <col min="4" max="4" width="45.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="46.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
-    <col min="11" max="16" width="16.7109375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1376,7 +1298,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>3</v>
       </c>
@@ -1408,27 +1330,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7.7109375" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" customWidth="1"/>
-    <col min="3" max="3" width="60.7109375" customWidth="1"/>
-    <col min="4" max="4" width="45.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="46.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
-    <col min="11" max="16" width="16.7109375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1460,7 +1369,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>2</v>
       </c>
@@ -1486,7 +1395,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>3</v>
       </c>
@@ -1512,7 +1421,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1538,7 +1447,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1564,7 +1473,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1590,7 +1499,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1616,7 +1525,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>2</v>
       </c>
@@ -1648,27 +1557,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7.7109375" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" customWidth="1"/>
-    <col min="3" max="3" width="60.7109375" customWidth="1"/>
-    <col min="4" max="4" width="45.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="46.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
-    <col min="11" max="16" width="16.7109375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1715,7 +1611,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>2</v>
       </c>
@@ -1747,27 +1643,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7.7109375" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" customWidth="1"/>
-    <col min="3" max="3" width="60.7109375" customWidth="1"/>
-    <col min="4" max="4" width="45.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="46.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
-    <col min="11" max="16" width="16.7109375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1814,7 +1697,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1840,7 +1723,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1866,7 +1749,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1892,7 +1775,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1918,7 +1801,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1944,7 +1827,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>2</v>
       </c>
@@ -1976,27 +1859,27 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="4" t="s">
         <v>92</v>
       </c>
